--- a/03-Panda/data/artwork_data_colores.xlsx
+++ b/03-Panda/data/artwork_data_colores.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josh_\Documents\GitHub\py-diaz-veloz-josue-daniel\03-Panda\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6115772D-8B3D-4206-BC32-84A0694E107F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Artistas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -25,12 +31,12 @@
     <t>Paolozzi, Sir Eduardo</t>
   </si>
   <si>
+    <t>Jones, Allen</t>
+  </si>
+  <si>
     <t>Wols</t>
   </si>
   <si>
-    <t>Jones, Allen</t>
-  </si>
-  <si>
     <t>Piper, John</t>
   </si>
   <si>
@@ -49,18 +55,18 @@
     <t>Pasmore, Victor</t>
   </si>
   <si>
+    <t>Tyson, Ian</t>
+  </si>
+  <si>
     <t>Collins, Cecil</t>
   </si>
   <si>
-    <t>Tyson, Ian</t>
+    <t>Rothenstein, Sir William</t>
   </si>
   <si>
     <t>Nicholson, Sir William</t>
   </si>
   <si>
-    <t>Rothenstein, Sir William</t>
-  </si>
-  <si>
     <t>Kokoschka, Oskar</t>
   </si>
   <si>
@@ -70,212 +76,212 @@
     <t>Frost, Sir Terry</t>
   </si>
   <si>
+    <t>Stephenson, Ian</t>
+  </si>
+  <si>
+    <t>Palmer, Roger</t>
+  </si>
+  <si>
     <t>Mordmüller, Rainer G</t>
   </si>
   <si>
-    <t>Stephenson, Ian</t>
-  </si>
-  <si>
     <t>Nash, John</t>
   </si>
   <si>
-    <t>Palmer, Roger</t>
-  </si>
-  <si>
     <t>Valoch, Jiri</t>
   </si>
   <si>
+    <t>Brus, Günter</t>
+  </si>
+  <si>
     <t>Ayrton, Michael</t>
   </si>
   <si>
-    <t>Brus, Günter</t>
-  </si>
-  <si>
     <t>Vasarely, Victor</t>
   </si>
   <si>
+    <t>Manessier, Alfred</t>
+  </si>
+  <si>
     <t>Hodgkin, Howard</t>
   </si>
   <si>
-    <t>Manessier, Alfred</t>
+    <t>Kunkel, Don</t>
+  </si>
+  <si>
+    <t>Bird, John</t>
+  </si>
+  <si>
+    <t>Abrahams, Ivor</t>
+  </si>
+  <si>
+    <t>Murphy, John</t>
+  </si>
+  <si>
+    <t>Blake, John</t>
+  </si>
+  <si>
+    <t>Neiland, Brendan</t>
+  </si>
+  <si>
+    <t>Herring, Ed</t>
+  </si>
+  <si>
+    <t>Pomodoro, Gio</t>
+  </si>
+  <si>
+    <t>Irvin, Albert</t>
+  </si>
+  <si>
+    <t>Benrath, Frédéric</t>
+  </si>
+  <si>
+    <t>Benjamin, Anthony</t>
+  </si>
+  <si>
+    <t>Götz, Professor Karl-Otto</t>
+  </si>
+  <si>
+    <t>Rainer, Arnulf</t>
+  </si>
+  <si>
+    <t>Spencer, Sir Stanley</t>
+  </si>
+  <si>
+    <t>Schneider, Gerard</t>
+  </si>
+  <si>
+    <t>Disler, Martin</t>
+  </si>
+  <si>
+    <t>London Gallery</t>
+  </si>
+  <si>
+    <t>Dine, Jim</t>
+  </si>
+  <si>
+    <t>Sutherland, Graham, OM</t>
+  </si>
+  <si>
+    <t>Tamayo, Rufino</t>
+  </si>
+  <si>
+    <t>Phillips, Esq Tom</t>
+  </si>
+  <si>
+    <t>Lindström, Bengt</t>
+  </si>
+  <si>
+    <t>Grayson, Roy</t>
+  </si>
+  <si>
+    <t>Baumeister, Willi</t>
+  </si>
+  <si>
+    <t>Wunderlich, Paul</t>
+  </si>
+  <si>
+    <t>Matisse, Henri</t>
+  </si>
+  <si>
+    <t>Guston, Philip</t>
+  </si>
+  <si>
+    <t>Hamilton Finlay, Ian</t>
+  </si>
+  <si>
+    <t>Illes, Arpad</t>
+  </si>
+  <si>
+    <t>Cutts, Simon</t>
+  </si>
+  <si>
+    <t>Blake, Peter</t>
+  </si>
+  <si>
+    <t>Maccari, Mino</t>
+  </si>
+  <si>
+    <t>Beuys, Joseph</t>
+  </si>
+  <si>
+    <t>Cuixart, Modestos</t>
+  </si>
+  <si>
+    <t>Le Parc, Julio</t>
+  </si>
+  <si>
+    <t>Stezaker, John</t>
+  </si>
+  <si>
+    <t>Laabs, Hans</t>
+  </si>
+  <si>
+    <t>Trevelyan, Julian</t>
+  </si>
+  <si>
+    <t>Salt, John</t>
+  </si>
+  <si>
+    <t>Fabro, Luciano</t>
+  </si>
+  <si>
+    <t>Downsbrough, Peter</t>
+  </si>
+  <si>
+    <t>Thomkins, André</t>
   </si>
   <si>
     <t>Loker, John</t>
   </si>
   <si>
-    <t>Laabs, Hans</t>
+    <t>Lattanzi, Luciano</t>
+  </si>
+  <si>
+    <t>Wentworth, Richard</t>
   </si>
   <si>
     <t>Art &amp; Language (Michael Baldwin, born 1945; Mel Ramsden, born 1944)</t>
   </si>
   <si>
-    <t>Matisse, Henri</t>
-  </si>
-  <si>
-    <t>Schneider, Gerard</t>
+    <t>Frohner, Adolf</t>
+  </si>
+  <si>
+    <t>Park, Alistair</t>
+  </si>
+  <si>
+    <t>Appel, Karel</t>
+  </si>
+  <si>
+    <t>Braque, Georges</t>
+  </si>
+  <si>
+    <t>King, Ronald</t>
+  </si>
+  <si>
+    <t>Nevinson, Christopher Richard Wynne</t>
+  </si>
+  <si>
+    <t>Rocamora, Jaume</t>
+  </si>
+  <si>
+    <t>Baselitz, Georg</t>
   </si>
   <si>
     <t>Hayter, Stanley William</t>
   </si>
   <si>
-    <t>Wentworth, Richard</t>
-  </si>
-  <si>
-    <t>Pomodoro, Gio</t>
-  </si>
-  <si>
-    <t>Guston, Philip</t>
-  </si>
-  <si>
-    <t>Spencer, Sir Stanley</t>
-  </si>
-  <si>
-    <t>Beuys, Joseph</t>
-  </si>
-  <si>
-    <t>Rocamora, Jaume</t>
-  </si>
-  <si>
-    <t>King, Ronald</t>
-  </si>
-  <si>
-    <t>Hamilton Finlay, Ian</t>
-  </si>
-  <si>
-    <t>Tamayo, Rufino</t>
+    <t>Ackroyd, Norman</t>
   </si>
   <si>
     <t>Soulages, Pierre</t>
-  </si>
-  <si>
-    <t>Lindström, Bengt</t>
-  </si>
-  <si>
-    <t>Illes, Arpad</t>
-  </si>
-  <si>
-    <t>Dine, Jim</t>
-  </si>
-  <si>
-    <t>Frohner, Adolf</t>
-  </si>
-  <si>
-    <t>Kunkel, Don</t>
-  </si>
-  <si>
-    <t>Fabro, Luciano</t>
-  </si>
-  <si>
-    <t>Rainer, Arnulf</t>
-  </si>
-  <si>
-    <t>London Gallery</t>
-  </si>
-  <si>
-    <t>Stezaker, John</t>
-  </si>
-  <si>
-    <t>Sutherland, Graham, OM</t>
-  </si>
-  <si>
-    <t>Maccari, Mino</t>
-  </si>
-  <si>
-    <t>Le Parc, Julio</t>
-  </si>
-  <si>
-    <t>Lattanzi, Luciano</t>
-  </si>
-  <si>
-    <t>Thomkins, André</t>
-  </si>
-  <si>
-    <t>Cutts, Simon</t>
-  </si>
-  <si>
-    <t>Baumeister, Willi</t>
-  </si>
-  <si>
-    <t>Blake, Peter</t>
-  </si>
-  <si>
-    <t>Benjamin, Anthony</t>
-  </si>
-  <si>
-    <t>Abrahams, Ivor</t>
-  </si>
-  <si>
-    <t>Ackroyd, Norman</t>
-  </si>
-  <si>
-    <t>Neiland, Brendan</t>
-  </si>
-  <si>
-    <t>Murphy, John</t>
-  </si>
-  <si>
-    <t>Irvin, Albert</t>
-  </si>
-  <si>
-    <t>Benrath, Frédéric</t>
-  </si>
-  <si>
-    <t>Appel, Karel</t>
-  </si>
-  <si>
-    <t>Götz, Professor Karl-Otto</t>
-  </si>
-  <si>
-    <t>Bird, John</t>
-  </si>
-  <si>
-    <t>Grayson, Roy</t>
-  </si>
-  <si>
-    <t>Wunderlich, Paul</t>
-  </si>
-  <si>
-    <t>Baselitz, Georg</t>
-  </si>
-  <si>
-    <t>Phillips, Esq Tom</t>
-  </si>
-  <si>
-    <t>Park, Alistair</t>
-  </si>
-  <si>
-    <t>Blake, John</t>
-  </si>
-  <si>
-    <t>Downsbrough, Peter</t>
-  </si>
-  <si>
-    <t>Nevinson, Christopher Richard Wynne</t>
-  </si>
-  <si>
-    <t>Herring, Ed</t>
-  </si>
-  <si>
-    <t>Disler, Martin</t>
-  </si>
-  <si>
-    <t>Cuixart, Modestos</t>
-  </si>
-  <si>
-    <t>Braque, Georges</t>
-  </si>
-  <si>
-    <t>Salt, John</t>
-  </si>
-  <si>
-    <t>Trevelyan, Julian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,11 +344,675 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Artistas!$A$2:$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>Gill, Eric</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paolozzi, Sir Eduardo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Jones, Allen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wols</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Piper, John</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pissarro, Lucien</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tilson, Joe</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>House, Gordon</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Winner, Gerd</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Pasmore, Victor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tyson, Ian</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Collins, Cecil</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Rothenstein, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nicholson, Sir William</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Kokoschka, Oskar</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Fry, Roger</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Frost, Sir Terry</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Stephenson, Ian</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Palmer, Roger</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Mordmüller, Rainer G</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nash, John</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Valoch, Jiri</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Brus, Günter</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ayrton, Michael</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Vasarely, Victor</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Manessier, Alfred</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Hodgkin, Howard</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Kunkel, Don</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Bird, John</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Abrahams, Ivor</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Murphy, John</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Blake, John</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Neiland, Brendan</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Herring, Ed</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Pomodoro, Gio</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Irvin, Albert</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Benrath, Frédéric</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Benjamin, Anthony</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Götz, Professor Karl-Otto</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Rainer, Arnulf</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Spencer, Sir Stanley</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Schneider, Gerard</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Disler, Martin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>London Gallery</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Dine, Jim</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Sutherland, Graham, OM</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Tamayo, Rufino</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Phillips, Esq Tom</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Lindström, Bengt</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Grayson, Roy</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Baumeister, Willi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Wunderlich, Paul</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Matisse, Henri</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Guston, Philip</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Hamilton Finlay, Ian</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Illes, Arpad</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Cutts, Simon</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Blake, Peter</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Maccari, Mino</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Beuys, Joseph</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Cuixart, Modestos</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Le Parc, Julio</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Stezaker, John</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Laabs, Hans</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Trevelyan, Julian</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Salt, John</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Fabro, Luciano</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Downsbrough, Peter</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Thomkins, André</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Loker, John</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Lattanzi, Luciano</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Wentworth, Richard</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Art &amp; Language (Michael Baldwin, born 1945; Mel Ramsden, born 1944)</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Frohner, Adolf</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Park, Alistair</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Appel, Karel</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Braque, Georges</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>King, Ronald</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Nevinson, Christopher Richard Wynne</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Rocamora, Jaume</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Baselitz, Georg</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Hayter, Stanley William</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Ackroyd, Norman</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Soulages, Pierre</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Artistas!$B$2:$B$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="84"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6AD5-40BA-B6D0-6368D2315744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -384,7 +1054,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,9 +1086,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,6 +1138,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -625,19 +1331,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +1353,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,7 +1361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -661,7 +1369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -669,7 +1377,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -677,7 +1385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +1393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -693,7 +1401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -701,7 +1409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,7 +1417,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -717,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,7 +1433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -741,7 +1449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -749,7 +1457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -757,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,7 +1481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -781,7 +1489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -789,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -797,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -805,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -813,7 +1521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -821,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -829,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -837,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -845,7 +1553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -853,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -861,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -869,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -877,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -885,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -893,7 +1601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -901,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -909,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -917,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -925,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -933,7 +1641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -941,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -949,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -957,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -965,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -973,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -981,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -989,7 +1697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -997,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1005,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1013,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1021,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1029,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1045,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1053,7 +1761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1061,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1069,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1077,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1085,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1093,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1101,7 +1809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1109,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1117,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1125,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1133,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1141,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1149,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1157,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1165,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1173,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1181,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1189,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1197,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1205,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1213,7 +1921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1221,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -1229,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -1237,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -1245,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1253,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -1261,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1269,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -1277,7 +1985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -1285,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -1293,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -1301,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -1321,5 +2029,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>